--- a/biology/Médecine/Famille_Hibbert/Famille_Hibbert.xlsx
+++ b/biology/Médecine/Famille_Hibbert/Famille_Hibbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La famille Hibbert est une famille fictive de la série animée télévisée Les Simpson.
@@ -512,7 +524,9 @@
           <t>Julius Hibbert</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médecin référent des Simpson.
 Julius Hibbert est le très généreux et aimable médecin de famille des Simpson. D'origine afro-américaine, c'est l'un des personnages récurrents les plus réguliers de la série. Il est notamment un des personnages les plus équilibrés de la série, bien qu'il éclate souvent de rire à des moments inopportuns, par exemple en racontant des blagues à ses patients sur la table d'opérations.
@@ -555,12 +569,14 @@
           <t>Bernice Hibbert</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femme du Docteur Hibbert.
 Doublée par Régine Teyssot. Même si elle apparaît dans de nombreux épisodes, on ne sait que peu de choses d'elle car elle est souvent effacée par rapport à son mari. Elle semble connaître son mari comme sa poche et être fusionnelle avec lui, mais voudrait qu'il soit plus présent !
 On sait qu'elle participe à la Gay Pride et qu'elle est tombée sous le charme de Moe après son opération de chirurgie esthétique. 
-On peut également noter qu'elle est alcoolique, fait souligné à plusieurs reprises : elle fréquente les réunions des Alcooliques Anonymes[1] et s'évanouit lorsqu'elle apprend que Springfield tombe sous le coup de la prohibition (Ep.4F15).
+On peut également noter qu'elle est alcoolique, fait souligné à plusieurs reprises : elle fréquente les réunions des Alcooliques Anonymes et s'évanouit lorsqu'elle apprend que Springfield tombe sous le coup de la prohibition (Ep.4F15).
 Elle est souvent présente aux grands rassemblements des habitants de Springfield, comme la plupart des personnages secondaires, mais participe rarement à l'intrigue. L'un de ses passe-temps est le jardinage.
 </t>
         </is>
@@ -590,7 +606,9 @@
           <t>Leurs enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les époux Hibbert ont trois enfants qui apparaissent parfois lorsque la famille est rassemblée au restaurant à la plage ou dans leur véhicule. Dans les saisons 14 et 19, ces véhicules étaient des monospaces, mais dans les dernières saisons ils semblent voyager à bord d'une berline ou d'un SUV Mercedes-Benz classe G:
 Un garçon d'une quinzaine d'années, qui est souvent vu avec ses parents.
